--- a/data_year/zb/科技/规模以上工业企业专利情况/按行业分规模以上工业企业专利申请数.xlsx
+++ b/data_year/zb/科技/规模以上工业企业专利情况/按行业分规模以上工业企业专利申请数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>32022</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38829</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14059</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4350</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18436</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2231</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11115</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1281</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7735</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3298</v>
+      </c>
       <c r="L2" t="n">
-        <v>64569</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>386075</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3396</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4463</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6519</v>
+      </c>
+      <c r="P2" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1914</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2814</v>
+      </c>
+      <c r="S2" t="n">
+        <v>197</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1145</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1917</v>
+      </c>
+      <c r="V2" t="n">
+        <v>63</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6716</v>
+      </c>
+      <c r="X2" t="n">
+        <v>57713</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1055</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2337</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12711</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>71890</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>33060</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2243</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12699</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9136</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>145</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3870</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2174</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>8381</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>43050</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5927</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23143</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2142</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14976</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1970</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>3897</v>
+      </c>
       <c r="L3" t="n">
-        <v>173573</v>
+        <v>489945</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>8026</v>
+      </c>
+      <c r="P3" t="n">
+        <v>204</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2442</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>283</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1581</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2372</v>
+      </c>
+      <c r="V3" t="n">
+        <v>105</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13515</v>
+      </c>
+      <c r="X3" t="n">
+        <v>74811</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>1441</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2129</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12082</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>82406</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>42136</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3445</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16722</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11711</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>273</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4716</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>12112</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>547</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>53037</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>7344</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27165</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17124</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2867</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>4826</v>
+      </c>
       <c r="L4" t="n">
-        <v>265808</v>
+        <v>560918</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>9022</v>
+      </c>
+      <c r="P4" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2603</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>294</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2634</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2857</v>
+      </c>
+      <c r="V4" t="n">
+        <v>84</v>
+      </c>
+      <c r="W4" t="n">
+        <v>17537</v>
+      </c>
+      <c r="X4" t="n">
+        <v>78154</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2628</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11457</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>88960</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>49305</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3278</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18318</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15369</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>387</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5421</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>13874</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>588</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32022</v>
-      </c>
-      <c r="C5" t="n">
-        <v>38829</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14059</v>
-      </c>
+        <v>54607</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>4350</v>
+        <v>8449</v>
       </c>
       <c r="F5" t="n">
-        <v>18436</v>
+        <v>30482</v>
       </c>
       <c r="G5" t="n">
-        <v>2231</v>
+        <v>3083</v>
       </c>
       <c r="H5" t="n">
-        <v>11115</v>
+        <v>19354</v>
       </c>
       <c r="I5" t="n">
-        <v>1281</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7735</v>
-      </c>
+        <v>3117</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>3298</v>
+        <v>5009</v>
       </c>
       <c r="L5" t="n">
-        <v>386075</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3396</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4463</v>
-      </c>
+        <v>630561</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>6519</v>
+        <v>9820</v>
       </c>
       <c r="P5" t="n">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="Q5" t="n">
-        <v>1914</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2814</v>
-      </c>
+        <v>2467</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="T5" t="n">
-        <v>1145</v>
+        <v>2257</v>
       </c>
       <c r="U5" t="n">
-        <v>1917</v>
+        <v>2549</v>
       </c>
       <c r="V5" t="n">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="W5" t="n">
-        <v>6716</v>
+        <v>20068</v>
       </c>
       <c r="X5" t="n">
-        <v>57713</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2008</v>
-      </c>
+        <v>92954</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>1055</v>
+        <v>2078</v>
       </c>
       <c r="AA5" t="n">
-        <v>2337</v>
+        <v>2467</v>
       </c>
       <c r="AB5" t="n">
-        <v>12711</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3565</v>
-      </c>
+        <v>12712</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>71890</v>
+        <v>103504</v>
       </c>
       <c r="AE5" t="n">
-        <v>33060</v>
+        <v>53169</v>
       </c>
       <c r="AF5" t="n">
-        <v>2243</v>
+        <v>4351</v>
       </c>
       <c r="AG5" t="n">
-        <v>12699</v>
+        <v>19564</v>
       </c>
       <c r="AH5" t="n">
-        <v>9136</v>
+        <v>16627</v>
       </c>
       <c r="AI5" t="n">
-        <v>145</v>
+        <v>418</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3870</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2174</v>
-      </c>
+        <v>6180</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>8381</v>
+        <v>15419</v>
       </c>
       <c r="AM5" t="n">
-        <v>301</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43050</v>
+        <v>52288</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>5927</v>
+        <v>9074</v>
       </c>
       <c r="F6" t="n">
-        <v>23143</v>
+        <v>28778</v>
       </c>
       <c r="G6" t="n">
-        <v>2142</v>
+        <v>2379</v>
       </c>
       <c r="H6" t="n">
-        <v>14976</v>
+        <v>16020</v>
       </c>
       <c r="I6" t="n">
-        <v>1970</v>
+        <v>3303</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>3897</v>
+        <v>9181</v>
       </c>
       <c r="L6" t="n">
-        <v>489945</v>
+        <v>638513</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>8026</v>
+        <v>10146</v>
       </c>
       <c r="P6" t="n">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="Q6" t="n">
-        <v>2442</v>
+        <v>2950</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="T6" t="n">
-        <v>1581</v>
+        <v>3110</v>
       </c>
       <c r="U6" t="n">
-        <v>2372</v>
+        <v>2951</v>
       </c>
       <c r="V6" t="n">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="W6" t="n">
-        <v>13515</v>
+        <v>20735</v>
       </c>
       <c r="X6" t="n">
-        <v>74811</v>
+        <v>92865</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>1441</v>
+        <v>1912</v>
       </c>
       <c r="AA6" t="n">
-        <v>2129</v>
+        <v>2725</v>
       </c>
       <c r="AB6" t="n">
-        <v>12082</v>
+        <v>17017</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>82406</v>
+        <v>100785</v>
       </c>
       <c r="AE6" t="n">
-        <v>42136</v>
+        <v>52898</v>
       </c>
       <c r="AF6" t="n">
-        <v>3445</v>
+        <v>3982</v>
       </c>
       <c r="AG6" t="n">
-        <v>16722</v>
+        <v>22003</v>
       </c>
       <c r="AH6" t="n">
-        <v>11711</v>
+        <v>16243</v>
       </c>
       <c r="AI6" t="n">
-        <v>273</v>
+        <v>426</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4716</v>
+        <v>6677</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>12112</v>
+        <v>14085</v>
       </c>
       <c r="AM6" t="n">
-        <v>547</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53037</v>
+        <v>57906</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>7344</v>
+        <v>10066</v>
       </c>
       <c r="F7" t="n">
-        <v>27165</v>
+        <v>34739</v>
       </c>
       <c r="G7" t="n">
-        <v>3177</v>
+        <v>2753</v>
       </c>
       <c r="H7" t="n">
-        <v>17124</v>
+        <v>17785</v>
       </c>
       <c r="I7" t="n">
-        <v>2867</v>
+        <v>3702</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>4826</v>
+        <v>10629</v>
       </c>
       <c r="L7" t="n">
-        <v>560918</v>
+        <v>715397</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>9022</v>
+        <v>11173</v>
       </c>
       <c r="P7" t="n">
-        <v>254</v>
+        <v>425</v>
       </c>
       <c r="Q7" t="n">
-        <v>2603</v>
+        <v>3124</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>294</v>
+        <v>459</v>
       </c>
       <c r="T7" t="n">
-        <v>2634</v>
+        <v>3318</v>
       </c>
       <c r="U7" t="n">
-        <v>2857</v>
+        <v>2399</v>
       </c>
       <c r="V7" t="n">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="W7" t="n">
-        <v>17537</v>
+        <v>20065</v>
       </c>
       <c r="X7" t="n">
-        <v>78154</v>
+        <v>113140</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>1600</v>
+        <v>1805</v>
       </c>
       <c r="AA7" t="n">
-        <v>2628</v>
+        <v>2950</v>
       </c>
       <c r="AB7" t="n">
-        <v>11457</v>
+        <v>13777</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>88960</v>
+        <v>118725</v>
       </c>
       <c r="AE7" t="n">
-        <v>49305</v>
+        <v>60198</v>
       </c>
       <c r="AF7" t="n">
-        <v>3278</v>
+        <v>5008</v>
       </c>
       <c r="AG7" t="n">
-        <v>18318</v>
+        <v>24978</v>
       </c>
       <c r="AH7" t="n">
-        <v>15369</v>
+        <v>18777</v>
       </c>
       <c r="AI7" t="n">
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5421</v>
+        <v>7673</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>13874</v>
+        <v>13262</v>
       </c>
       <c r="AM7" t="n">
-        <v>588</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54607</v>
+        <v>68462</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>8449</v>
+        <v>10966</v>
       </c>
       <c r="F8" t="n">
-        <v>30482</v>
+        <v>39389</v>
       </c>
       <c r="G8" t="n">
-        <v>3083</v>
+        <v>2526</v>
       </c>
       <c r="H8" t="n">
-        <v>19354</v>
+        <v>19878</v>
       </c>
       <c r="I8" t="n">
-        <v>3117</v>
+        <v>5081</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>5009</v>
+        <v>10064</v>
       </c>
       <c r="L8" t="n">
-        <v>630561</v>
+        <v>817037</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>9820</v>
+        <v>13324</v>
       </c>
       <c r="P8" t="n">
-        <v>246</v>
+        <v>509</v>
       </c>
       <c r="Q8" t="n">
-        <v>2467</v>
+        <v>3375</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="T8" t="n">
-        <v>2257</v>
+        <v>3557</v>
       </c>
       <c r="U8" t="n">
-        <v>2549</v>
+        <v>3179</v>
       </c>
       <c r="V8" t="n">
-        <v>260</v>
+        <v>432</v>
       </c>
       <c r="W8" t="n">
-        <v>20068</v>
+        <v>19914</v>
       </c>
       <c r="X8" t="n">
-        <v>92954</v>
+        <v>136915</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>2078</v>
+        <v>2682</v>
       </c>
       <c r="AA8" t="n">
-        <v>2467</v>
+        <v>3140</v>
       </c>
       <c r="AB8" t="n">
-        <v>12712</v>
+        <v>12667</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>103504</v>
+        <v>145303</v>
       </c>
       <c r="AE8" t="n">
-        <v>53169</v>
+        <v>64164</v>
       </c>
       <c r="AF8" t="n">
-        <v>4351</v>
+        <v>5184</v>
       </c>
       <c r="AG8" t="n">
-        <v>19564</v>
+        <v>29243</v>
       </c>
       <c r="AH8" t="n">
-        <v>16627</v>
+        <v>24215</v>
       </c>
       <c r="AI8" t="n">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6180</v>
+        <v>8293</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>15419</v>
+        <v>14784</v>
       </c>
       <c r="AM8" t="n">
-        <v>663</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52288</v>
+        <v>81540</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>9074</v>
+        <v>11774</v>
       </c>
       <c r="F9" t="n">
-        <v>28778</v>
+        <v>42545</v>
       </c>
       <c r="G9" t="n">
-        <v>2379</v>
+        <v>3126</v>
       </c>
       <c r="H9" t="n">
-        <v>16020</v>
+        <v>21698</v>
       </c>
       <c r="I9" t="n">
-        <v>3303</v>
+        <v>6356</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>9181</v>
+        <v>11064</v>
       </c>
       <c r="L9" t="n">
-        <v>638513</v>
+        <v>957298</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>10146</v>
+        <v>14259</v>
       </c>
       <c r="P9" t="n">
-        <v>408</v>
+        <v>705</v>
       </c>
       <c r="Q9" t="n">
-        <v>2950</v>
+        <v>4112</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>271</v>
+        <v>842</v>
       </c>
       <c r="T9" t="n">
-        <v>3110</v>
+        <v>4763</v>
       </c>
       <c r="U9" t="n">
-        <v>2951</v>
+        <v>3769</v>
       </c>
       <c r="V9" t="n">
-        <v>195</v>
+        <v>637</v>
       </c>
       <c r="W9" t="n">
-        <v>20735</v>
+        <v>28463</v>
       </c>
       <c r="X9" t="n">
-        <v>92865</v>
+        <v>152766</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>1912</v>
+        <v>2884</v>
       </c>
       <c r="AA9" t="n">
-        <v>2725</v>
+        <v>4196</v>
       </c>
       <c r="AB9" t="n">
-        <v>17017</v>
+        <v>18239</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>100785</v>
+        <v>179405</v>
       </c>
       <c r="AE9" t="n">
-        <v>52898</v>
+        <v>78960</v>
       </c>
       <c r="AF9" t="n">
-        <v>3982</v>
+        <v>6841</v>
       </c>
       <c r="AG9" t="n">
-        <v>22003</v>
+        <v>38868</v>
       </c>
       <c r="AH9" t="n">
-        <v>16243</v>
+        <v>30385</v>
       </c>
       <c r="AI9" t="n">
-        <v>426</v>
+        <v>602</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6677</v>
+        <v>9227</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>14085</v>
+        <v>14303</v>
       </c>
       <c r="AM9" t="n">
-        <v>762</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57906</v>
+        <v>94361</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>10066</v>
+        <v>11441</v>
       </c>
       <c r="F10" t="n">
-        <v>34739</v>
+        <v>43817</v>
       </c>
       <c r="G10" t="n">
-        <v>2753</v>
+        <v>3290</v>
       </c>
       <c r="H10" t="n">
-        <v>17785</v>
+        <v>23400</v>
       </c>
       <c r="I10" t="n">
-        <v>3702</v>
+        <v>7392</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>10629</v>
+        <v>11928</v>
       </c>
       <c r="L10" t="n">
-        <v>715397</v>
+        <v>1059808</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>11173</v>
+        <v>15599</v>
       </c>
       <c r="P10" t="n">
-        <v>425</v>
+        <v>1030</v>
       </c>
       <c r="Q10" t="n">
-        <v>3124</v>
+        <v>4388</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>459</v>
+        <v>1135</v>
       </c>
       <c r="T10" t="n">
-        <v>3318</v>
+        <v>4940</v>
       </c>
       <c r="U10" t="n">
-        <v>2399</v>
+        <v>3547</v>
       </c>
       <c r="V10" t="n">
-        <v>202</v>
+        <v>814</v>
       </c>
       <c r="W10" t="n">
-        <v>20065</v>
+        <v>27165</v>
       </c>
       <c r="X10" t="n">
-        <v>113140</v>
+        <v>157224</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>1805</v>
+        <v>3277</v>
       </c>
       <c r="AA10" t="n">
-        <v>2950</v>
+        <v>4069</v>
       </c>
       <c r="AB10" t="n">
-        <v>13777</v>
+        <v>16410</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>118725</v>
+        <v>204836</v>
       </c>
       <c r="AE10" t="n">
-        <v>60198</v>
+        <v>95039</v>
       </c>
       <c r="AF10" t="n">
-        <v>5008</v>
+        <v>8002</v>
       </c>
       <c r="AG10" t="n">
-        <v>24978</v>
+        <v>46181</v>
       </c>
       <c r="AH10" t="n">
-        <v>18777</v>
+        <v>35527</v>
       </c>
       <c r="AI10" t="n">
-        <v>503</v>
+        <v>702</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7673</v>
+        <v>9989</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>13262</v>
+        <v>17474</v>
       </c>
       <c r="AM10" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68462</v>
+        <v>113454</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>10966</v>
+        <v>14147</v>
       </c>
       <c r="F11" t="n">
-        <v>39389</v>
+        <v>52887</v>
       </c>
       <c r="G11" t="n">
-        <v>2526</v>
+        <v>3944</v>
       </c>
       <c r="H11" t="n">
-        <v>19878</v>
+        <v>29107</v>
       </c>
       <c r="I11" t="n">
-        <v>5081</v>
+        <v>9006</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>10064</v>
+        <v>14562</v>
       </c>
       <c r="L11" t="n">
-        <v>817037</v>
+        <v>1243927</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>13324</v>
+        <v>18276</v>
       </c>
       <c r="P11" t="n">
-        <v>509</v>
+        <v>1308</v>
       </c>
       <c r="Q11" t="n">
-        <v>3375</v>
+        <v>4825</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>488</v>
+        <v>1666</v>
       </c>
       <c r="T11" t="n">
-        <v>3557</v>
+        <v>6348</v>
       </c>
       <c r="U11" t="n">
-        <v>3179</v>
+        <v>4970</v>
       </c>
       <c r="V11" t="n">
-        <v>432</v>
+        <v>1118</v>
       </c>
       <c r="W11" t="n">
-        <v>19914</v>
+        <v>31939</v>
       </c>
       <c r="X11" t="n">
-        <v>136915</v>
+        <v>183963</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>2682</v>
+        <v>4243</v>
       </c>
       <c r="AA11" t="n">
-        <v>3140</v>
+        <v>3907</v>
       </c>
       <c r="AB11" t="n">
-        <v>12667</v>
+        <v>18905</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>145303</v>
+        <v>224990</v>
       </c>
       <c r="AE11" t="n">
-        <v>64164</v>
+        <v>110510</v>
       </c>
       <c r="AF11" t="n">
-        <v>5184</v>
+        <v>9895</v>
       </c>
       <c r="AG11" t="n">
-        <v>29243</v>
+        <v>56941</v>
       </c>
       <c r="AH11" t="n">
-        <v>24215</v>
+        <v>48345</v>
       </c>
       <c r="AI11" t="n">
-        <v>456</v>
+        <v>942</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8293</v>
+        <v>12547</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>14784</v>
+        <v>19605</v>
       </c>
       <c r="AM11" t="n">
-        <v>428</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81540</v>
+        <v>130523</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>11774</v>
+        <v>16987</v>
       </c>
       <c r="F12" t="n">
-        <v>42545</v>
+        <v>58355</v>
       </c>
       <c r="G12" t="n">
-        <v>3126</v>
+        <v>4396</v>
       </c>
       <c r="H12" t="n">
-        <v>21698</v>
+        <v>31497</v>
       </c>
       <c r="I12" t="n">
-        <v>6356</v>
+        <v>11117</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>11064</v>
+        <v>16098</v>
       </c>
       <c r="L12" t="n">
-        <v>957298</v>
+        <v>1403611</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>14259</v>
+        <v>20889</v>
       </c>
       <c r="P12" t="n">
-        <v>705</v>
+        <v>1446</v>
       </c>
       <c r="Q12" t="n">
-        <v>4112</v>
+        <v>5552</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>842</v>
+        <v>2042</v>
       </c>
       <c r="T12" t="n">
-        <v>4763</v>
+        <v>7659</v>
       </c>
       <c r="U12" t="n">
-        <v>3769</v>
+        <v>5616</v>
       </c>
       <c r="V12" t="n">
-        <v>637</v>
+        <v>1266</v>
       </c>
       <c r="W12" t="n">
-        <v>28463</v>
+        <v>41342</v>
       </c>
       <c r="X12" t="n">
-        <v>152766</v>
+        <v>198905</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>2884</v>
+        <v>4400</v>
       </c>
       <c r="AA12" t="n">
-        <v>4196</v>
+        <v>3890</v>
       </c>
       <c r="AB12" t="n">
-        <v>18239</v>
+        <v>20382</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>179405</v>
+        <v>254906</v>
       </c>
       <c r="AE12" t="n">
-        <v>78960</v>
+        <v>124056</v>
       </c>
       <c r="AF12" t="n">
-        <v>6841</v>
+        <v>10632</v>
       </c>
       <c r="AG12" t="n">
-        <v>38868</v>
+        <v>65860</v>
       </c>
       <c r="AH12" t="n">
-        <v>30385</v>
+        <v>55011</v>
       </c>
       <c r="AI12" t="n">
-        <v>602</v>
+        <v>1409</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9227</v>
+        <v>14326</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>14303</v>
+        <v>21528</v>
       </c>
       <c r="AM12" t="n">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>94361</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>11441</v>
-      </c>
-      <c r="F13" t="n">
-        <v>43817</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3290</v>
-      </c>
-      <c r="H13" t="n">
-        <v>23400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7392</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>11928</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1059808</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>15599</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1030</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4388</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1135</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4940</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3547</v>
-      </c>
-      <c r="V13" t="n">
-        <v>814</v>
-      </c>
-      <c r="W13" t="n">
-        <v>27165</v>
-      </c>
-      <c r="X13" t="n">
-        <v>157224</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>3277</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>4069</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16410</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>204836</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>95039</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8002</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>46181</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>35527</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>702</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9989</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>17474</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>113454</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>14147</v>
-      </c>
-      <c r="F14" t="n">
-        <v>52887</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3944</v>
-      </c>
-      <c r="H14" t="n">
-        <v>29107</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9006</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>14562</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1243927</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>18276</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1308</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4825</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1666</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6348</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4970</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1118</v>
-      </c>
-      <c r="W14" t="n">
-        <v>31939</v>
-      </c>
-      <c r="X14" t="n">
-        <v>183963</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>4243</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3907</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18905</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>224990</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>110510</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9895</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>56941</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>48345</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>942</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12547</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>19605</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1064</v>
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
